--- a/Excelsheet.xlsx
+++ b/Excelsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\repositories\ProjektWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E253C8A-25C8-45FB-984F-DF45FB478C7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC06EA9D-5556-4A1B-B8A1-462A13052045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D39E27D8-1B68-45AA-90E1-833532BB8560}"/>
   </bookViews>
@@ -48,13 +48,13 @@
     <t>Aufgabenliste:</t>
   </si>
   <si>
-    <t>Github</t>
-  </si>
-  <si>
     <t>krank</t>
   </si>
   <si>
     <t>16.01.2020 - 23.01.2020</t>
+  </si>
+  <si>
+    <t>Github, Excelsheet</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,16 +471,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="F8" s="1"/>
       <c r="G8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>

--- a/Excelsheet.xlsx
+++ b/Excelsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\repositories\ProjektWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC06EA9D-5556-4A1B-B8A1-462A13052045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08326B1B-9F23-455F-A541-11AE53030075}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D39E27D8-1B68-45AA-90E1-833532BB8560}"/>
   </bookViews>
@@ -93,17 +93,17 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -421,7 +421,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,121 +439,121 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Excelsheet.xlsx
+++ b/Excelsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\repositories\ProjektWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08326B1B-9F23-455F-A541-11AE53030075}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27071C86-9FD6-41A1-B964-418666B02A48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D39E27D8-1B68-45AA-90E1-833532BB8560}"/>
   </bookViews>
@@ -61,8 +61,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -90,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -104,6 +112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -420,9 +429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1524A949-BEF9-414C-901C-BD046FC01A93}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -431,12 +438,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -457,7 +464,7 @@
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4"/>

--- a/Excelsheet.xlsx
+++ b/Excelsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\repositories\ProjektWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27071C86-9FD6-41A1-B964-418666B02A48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA980F27-282D-45DA-9AAD-098C48392475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D39E27D8-1B68-45AA-90E1-833532BB8560}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <t>16.01.2020 - 23.01.2020</t>
   </si>
   <si>
-    <t>Github, Excelsheet</t>
+    <t>Github, Excelsheet, Anfänge Grundgerüst</t>
   </si>
 </sst>
 </file>
@@ -98,21 +98,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -429,145 +432,150 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1524A949-BEF9-414C-901C-BD046FC01A93}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.77734375" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B8:D8"/>
+  <mergeCells count="5">
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B8:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
